--- a/data_excel/132.xlsx
+++ b/data_excel/132.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林鈺馨\Desktop\1028_(101-200題)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB1C502-301D-4FFD-937A-E587AC3C16BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>奇奇</t>
   </si>
@@ -138,14 +137,22 @@
   </si>
   <si>
     <t>時間點</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +174,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,13 +198,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -492,16 +522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -541,7 +571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -561,7 +591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -581,7 +611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -598,7 +628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -618,7 +648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -635,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -646,7 +676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -657,7 +687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -668,7 +698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -676,7 +706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -687,18 +717,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -706,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -720,7 +750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>

--- a/data_excel/132.xlsx
+++ b/data_excel/132.xlsx
@@ -99,9 +99,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -145,6 +142,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +527,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -548,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -568,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -588,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -608,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -645,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -673,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,29 +715,29 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,12 +748,12 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
